--- a/doc/04_DB定義書_ふっクラフト.xlsx
+++ b/doc/04_DB定義書_ふっクラフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\６月グループ演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D47F9FAE-AC04-400D-9B6E-9BAC645BBBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCA5250-9CCF-4443-AAB5-4DD23298D7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21640" yWindow="0" windowWidth="11220" windowHeight="10200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="107">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -185,10 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ScheZoole</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -219,6 +215,9 @@
       <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひとことメッセージ</t>
   </si>
   <si>
     <t>ひとことメッセージ</t>
@@ -257,35 +256,62 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>user</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>schedule</t>
+  </si>
+  <si>
+    <t>schedule</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>coin</t>
+  </si>
+  <si>
+    <t>coin</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>pet</t>
+  </si>
+  <si>
+    <t>pet</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>message</t>
+  </si>
+  <si>
+    <t>message</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>schedule_color</t>
+  </si>
+  <si>
+    <t>schedule_color</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>login</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>closet</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>closet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gacha</t>
   </si>
   <si>
     <t>gacha</t>
@@ -308,6 +334,281 @@
       <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット種類ID</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール完了数</t>
+    <rPh sb="6" eb="9">
+      <t>カンリョウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pet_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pet_id</t>
+  </si>
+  <si>
+    <t>pet_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>done_cnt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高川俊輔</t>
+    <rPh sb="0" eb="4">
+      <t>タカガワシュンスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>コイン所持数</t>
+    <rPh sb="3" eb="6">
+      <t>ショジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coin_count</t>
+  </si>
+  <si>
+    <t>高橋 凌人</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペットの種類ID</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペットの画像ID</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pet_img_id</t>
+  </si>
+  <si>
+    <t>ペットの画像のパス</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pet_img_path</t>
+  </si>
+  <si>
+    <t>メッセージ番号</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message_id</t>
+  </si>
+  <si>
+    <t>メッセージ</t>
+  </si>
+  <si>
+    <t>message_content</t>
+  </si>
+  <si>
+    <t>ログイン履歴</t>
+    <rPh sb="4" eb="6">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩田　和樹</t>
+    <rPh sb="0" eb="2">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン日時</t>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン日数</t>
+    <rPh sb="4" eb="6">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_days</t>
+  </si>
+  <si>
+    <t>スケジュール名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedule_name</t>
+  </si>
+  <si>
+    <t>開始日時</t>
+    <rPh sb="0" eb="4">
+      <t>カイシニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>17?</t>
+  </si>
+  <si>
+    <t>終了日時</t>
+    <rPh sb="0" eb="4">
+      <t>シュウリョウニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finish_time</t>
+  </si>
+  <si>
+    <t>色ID</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color_id</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>スケジュール色情報</t>
+    <rPh sb="6" eb="9">
+      <t>イロジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>カラーコード</t>
+  </si>
+  <si>
+    <t>color_code</t>
+  </si>
+  <si>
+    <t>飯泉慎之介</t>
+    <rPh sb="0" eb="5">
+      <t>イイズミシンノスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>きせかえ画像ID</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>closet_id</t>
+  </si>
+  <si>
+    <t>きせかえ画像パス</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>closet_pass</t>
   </si>
 </sst>
 </file>
@@ -396,7 +697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,11 +713,191 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D16"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,13 +1265,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -798,12 +1279,12 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>45085</v>
       </c>
     </row>
@@ -841,13 +1322,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -856,13 +1337,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -871,13 +1352,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -886,13 +1367,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -904,10 +1385,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -919,10 +1400,10 @@
         <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -934,10 +1415,10 @@
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -949,10 +1430,10 @@
         <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -964,10 +1445,10 @@
         <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -1178,12 +1659,501 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842BE95F-2476-4AF8-BC95-6D46207F3502}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="2" width="17.125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="58" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="58" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="58" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="58" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="63">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="61"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="61"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="58" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table gacha (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="61">
+        <v>1</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="L10" s="58" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>pet_id  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="61">
+        <v>2</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="L11" s="58" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>closet_id  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="61">
+        <v>3</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="L12" s="58" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>closet_pass  ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="61">
+        <v>4</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="L13" s="58" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">pet_name  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="61">
+        <v>5</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="L14" s="58" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="61">
+        <v>6</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="L15" s="58" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="61">
+        <v>7</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="L16" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="61">
+        <v>8</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="L17" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="61">
+        <v>9</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="L18" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="61">
+        <v>10</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="L19" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="61">
+        <v>11</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="L20" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="61">
+        <v>12</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="L21" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="61">
+        <v>13</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="L22" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="61">
+        <v>14</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="L23" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="61">
+        <v>15</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="L24" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="61">
+        <v>16</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="L25" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="61">
+        <v>17</v>
+      </c>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="L26" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="61">
+        <v>18</v>
+      </c>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="L27" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="61">
+        <v>19</v>
+      </c>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="L28" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="61">
+        <v>20</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="L29" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1194,12 +2164,12 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
@@ -1212,34 +2182,44 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1249,7 +2229,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1288,15 +2270,19 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table user (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1306,15 +2292,19 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>user_name  ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1324,7 +2314,1035 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>password  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>Email  ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>pet_name  ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>pet_id  ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">done_cnt  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB683A14-422C-4253-BD91-38AAB3775539}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="2" width="17.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="21" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="21" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="25">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="21" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table schedule (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="24">
+        <v>1</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="24"/>
+      <c r="L10" s="21" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_name  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="24">
+        <v>2</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="24"/>
+      <c r="L11" s="21" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>schedule_name  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="24">
+        <v>3</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="24"/>
+      <c r="L12" s="21" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>start_time  (17?),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="24">
+        <v>4</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="24"/>
+      <c r="L13" s="21" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>finish_time  ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="24">
+        <v>5</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="24"/>
+      <c r="L14" s="21" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>color_id  ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="24">
+        <v>6</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="24"/>
+      <c r="L15" s="21" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">content  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="24">
+        <v>7</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="L16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="24">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="L17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="24">
+        <v>9</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="L18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="24">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="L19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="24">
+        <v>11</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="L20" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="24">
+        <v>12</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="L21" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="24">
+        <v>13</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="L22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="24">
+        <v>14</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="L23" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="24">
+        <v>15</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="L24" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="24">
+        <v>16</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="L25" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="24">
+        <v>17</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="L26" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="24">
+        <v>18</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="L27" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="24">
+        <v>19</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="L28" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="24">
+        <v>20</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="L29" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C194251-135A-44F8-B907-3A0F779A8BBF}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table coin (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_name  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">coin_count  </v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1662,40 +3680,500 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB683A14-422C-4253-BD91-38AAB3775539}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE394B6-3633-46F1-9291-2894933908F0}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C194251-135A-44F8-B907-3A0F779A8BBF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE394B6-3633-46F1-9291-2894933908F0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="17.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table pet (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="L10" s="8" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>pet_id  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="L11" s="8" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>pet_img_id  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="L12" s="8" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">pet_img_path  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="L13" s="8" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="L14" s="8" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="L15" s="8" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="L16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>8</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="L17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
+        <v>9</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="L18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
+        <v>10</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="L19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
+        <v>11</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="L20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
+        <v>12</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="L21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
+        <v>13</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="L22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="L23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
+        <v>15</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="L24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
+        <v>16</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="L25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
+        <v>17</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="L26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="11">
+        <v>18</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="L27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
+        <v>19</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="L28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="11">
+        <v>20</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="L29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1703,14 +4181,498 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49EF00D-6FD4-4D3A-BD08-6C70F657682A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="17.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="14" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="14" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table message (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="L10" s="14" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>pet_id  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="L11" s="14" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>message_id  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>3</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="L12" s="14" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">message_content  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="L13" s="14" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
+        <v>5</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="L14" s="14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
+        <v>6</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="L15" s="14" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="17">
+        <v>7</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="L16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="L17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="17">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="L18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="17">
+        <v>10</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="L19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="17">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="L20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="17">
+        <v>12</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="L21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="17">
+        <v>13</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="L22" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="17">
+        <v>14</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="L23" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="17">
+        <v>15</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="L24" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="17">
+        <v>16</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="L25" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="17">
+        <v>17</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="L26" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="17">
+        <v>18</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="L27" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="17">
+        <v>19</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="L28" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="17">
+        <v>20</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="L29" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1718,12 +4680,492 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53EA6FC-C324-4F9B-A565-0D7C157FF910}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="39"/>
+    <col min="2" max="2" width="17.125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="39" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="39" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="39" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="39" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="39" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="39" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="35">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="39" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table schedule_color (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="42">
+        <v>1</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="L10" s="39" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>color  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="42">
+        <v>2</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="L11" s="39" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">color_code  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="42">
+        <v>3</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="L12" s="39" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="42">
+        <v>4</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="L13" s="39" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="42">
+        <v>5</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="L14" s="39" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="42">
+        <v>6</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="L15" s="39" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="42">
+        <v>7</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="L16" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="42">
+        <v>8</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="L17" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="42">
+        <v>9</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="L18" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="42">
+        <v>10</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="L19" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="42">
+        <v>11</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="L20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="42">
+        <v>12</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="L21" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="42">
+        <v>13</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="L22" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="42">
+        <v>14</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="L23" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="42">
+        <v>15</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="L24" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="42">
+        <v>16</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="L25" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="42">
+        <v>17</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="L26" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="42">
+        <v>18</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="L27" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="42">
+        <v>19</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="L28" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="42">
+        <v>20</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="L29" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1731,12 +5173,498 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5026028D-480E-4077-BFD6-092BDB0CB164}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="26"/>
+    <col min="2" max="2" width="17.125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="26" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="26" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="26" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="30">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="26" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table login (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="29">
+        <v>1</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="L10" s="26" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="29">
+        <v>2</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="L11" s="26" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_name  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="29">
+        <v>3</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="L12" s="26" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">login_days  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="29">
+        <v>4</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="L13" s="26" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="29">
+        <v>5</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="L14" s="26" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="29">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="L15" s="26" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="29">
+        <v>7</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="L16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="29">
+        <v>8</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="L17" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="29">
+        <v>9</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="L18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="29">
+        <v>10</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="L19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="29">
+        <v>11</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="L20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="29">
+        <v>12</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="L21" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="29">
+        <v>13</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="L22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="29">
+        <v>14</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="L23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="29">
+        <v>15</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="L24" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="29">
+        <v>16</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="L25" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="29">
+        <v>17</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="L26" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="29">
+        <v>18</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="L27" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="29">
+        <v>19</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="L28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="29">
+        <v>20</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="L29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1744,12 +5672,494 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3E6CD3-5F11-4D75-AA85-63AD6EC463BA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="50"/>
+    <col min="2" max="2" width="17.125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="50" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="50" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="50" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="50" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="50" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="50" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="50" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="50" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="55">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="53"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="53"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="50" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table closet (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="53">
+        <v>1</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="L10" s="50" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="53">
+        <v>2</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="L11" s="50" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">closet_id  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="53">
+        <v>3</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="L12" s="50" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="53">
+        <v>4</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="L13" s="50" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="53">
+        <v>5</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="L14" s="50" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="53">
+        <v>6</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="L15" s="50" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="53">
+        <v>7</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="L16" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="53">
+        <v>8</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="L17" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="53">
+        <v>9</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="L18" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="53">
+        <v>10</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="L19" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="53">
+        <v>11</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="L20" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="53">
+        <v>12</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="L21" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="53">
+        <v>13</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="L22" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="53">
+        <v>14</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="L23" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="53">
+        <v>15</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="L24" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="53">
+        <v>16</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="L25" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="53">
+        <v>17</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="L26" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="53">
+        <v>18</v>
+      </c>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="L27" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="53">
+        <v>19</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="L28" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="53">
+        <v>20</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="L29" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/04_DB定義書_ふっクラフト.xlsx
+++ b/doc/04_DB定義書_ふっクラフト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\６月グループ演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCA5250-9CCF-4443-AAB5-4DD23298D7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD697C6-56BF-45CF-99A2-CD15D85980A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -398,10 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>done_cnt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>高川俊輔</t>
     <rPh sb="0" eb="4">
       <t>タカガワシュンスケ</t>
@@ -417,9 +413,6 @@
       <t>ショジスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>coin_count</t>
   </si>
   <si>
     <t>高橋 凌人</t>
@@ -609,6 +602,18 @@
   </si>
   <si>
     <t>closet_pass</t>
+  </si>
+  <si>
+    <t>login_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>done_cnt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coin_cnt</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -697,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,188 +721,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,7 +1068,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1662,509 +1487,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="58"/>
-    <col min="2" max="2" width="17.125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="58" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="58" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="58" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="58" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="58" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="63">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="61"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="61"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="58" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table gacha (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="61">
-        <v>1</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="L10" s="58" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>pet_id  ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="61">
-        <v>2</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="L11" s="58" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>closet_id  ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="61">
-        <v>3</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="L12" s="58" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>closet_pass  ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="61">
-        <v>4</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="L13" s="58" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">pet_name  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="61">
-        <v>5</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="L14" s="58" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="61">
-        <v>6</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="L15" s="58" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="61">
-        <v>7</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="L16" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="61">
-        <v>8</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="L17" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="61">
-        <v>9</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="L18" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="61">
-        <v>10</v>
-      </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="L19" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="61">
-        <v>11</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="L20" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="61">
-        <v>12</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="L21" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="61">
-        <v>13</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="L22" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="61">
-        <v>14</v>
-      </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="L23" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="61">
-        <v>15</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="L24" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="61">
-        <v>16</v>
-      </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="L25" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="61">
-        <v>17</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="L26" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="61">
-        <v>18</v>
-      </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="L27" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="61">
-        <v>19</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="L28" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="61">
-        <v>20</v>
-      </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="L29" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" s="58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2196,6 +1519,506 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table gacha (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>pet_id  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>closet_id  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>closet_pass  ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">pet_name  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2391,7 +2214,7 @@
         <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2678,504 +2501,502 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="17.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="21" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="21" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="21" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" style="21" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="21"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>67</v>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="5">
         <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="21" t="str">
+      <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table schedule (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="24">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="24"/>
-      <c r="L10" s="21" t="str">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>user_name  ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="24">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="24"/>
-      <c r="L11" s="21" t="str">
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>schedule_name  ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="24">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="24"/>
-      <c r="L12" s="21" t="str">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>start_time  (17?),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="24">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="24"/>
-      <c r="L13" s="21" t="str">
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>finish_time  ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="24">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="24"/>
-      <c r="L14" s="21" t="str">
+      <c r="B14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>color_id  ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="24">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="24"/>
-      <c r="L15" s="21" t="str">
+      <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">content  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="24">
+      <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="L16" s="21" t="str">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="24">
+      <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="L17" s="21" t="str">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="24">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="L18" s="21" t="str">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="24">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="L19" s="21" t="str">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="24">
+      <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="L20" s="21" t="str">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="24">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="L21" s="21" t="str">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="24">
+      <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="L22" s="21" t="str">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="24">
+      <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="L23" s="21" t="str">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="24">
+      <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="L24" s="21" t="str">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="24">
+      <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="L25" s="21" t="str">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="24">
+      <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="L26" s="21" t="str">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="24">
+      <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="L27" s="21" t="str">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="24">
+      <c r="A28" s="3">
         <v>19</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="L28" s="21" t="str">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="24">
+      <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="L29" s="21" t="str">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" s="21" t="s">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3189,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C194251-135A-44F8-B907-3A0F779A8BBF}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3221,8 +3042,8 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>67</v>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3243,7 +3064,7 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3255,7 +3076,7 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3303,18 +3124,18 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="11"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3327,22 +3148,22 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">coin_count  </v>
+        <v xml:space="preserve">coin_cnt  </v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3690,46 +3511,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="17.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>71</v>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5">
@@ -3737,439 +3556,439 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="8" t="str">
+      <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table pet (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="L10" s="8" t="str">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>pet_id  ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="L11" s="8" t="str">
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>pet_img_id  ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="L12" s="8" t="str">
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">pet_img_path  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="L13" s="8" t="str">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="L14" s="8" t="str">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="L15" s="8" t="str">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+      <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="L16" s="8" t="str">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
+      <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="L17" s="8" t="str">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="L18" s="8" t="str">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="L19" s="8" t="str">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
+      <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="L20" s="8" t="str">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="L21" s="8" t="str">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+      <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="L22" s="8" t="str">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+      <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="L23" s="8" t="str">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
+      <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="L24" s="8" t="str">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+      <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="L25" s="8" t="str">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="11">
+      <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="L26" s="8" t="str">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="11">
+      <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="L27" s="8" t="str">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="11">
+      <c r="A28" s="3">
         <v>19</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="L28" s="8" t="str">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="11">
+      <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="L29" s="8" t="str">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" s="8" t="s">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4183,492 +4002,490 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49EF00D-6FD4-4D3A-BD08-6C70F657682A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="17.125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="14" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="14" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="14" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="14"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>71</v>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="5">
         <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="14" t="str">
+      <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table message (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="L10" s="14" t="str">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>pet_id  ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="L11" s="14" t="str">
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>message_id  ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="L12" s="14" t="str">
+      <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">message_content  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="L13" s="14" t="str">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="L14" s="14" t="str">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="17">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="L15" s="14" t="str">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="17">
+      <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="L16" s="14" t="str">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="17">
+      <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="L17" s="14" t="str">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="17">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="L18" s="14" t="str">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="17">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="L19" s="14" t="str">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="17">
+      <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="L20" s="14" t="str">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="17">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="L21" s="14" t="str">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
+      <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="L22" s="14" t="str">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="17">
+      <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="L23" s="14" t="str">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="17">
+      <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="L24" s="14" t="str">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="17">
+      <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="L25" s="14" t="str">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="17">
+      <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="L26" s="14" t="str">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="17">
+      <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="L27" s="14" t="str">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="17">
+      <c r="A28" s="3">
         <v>19</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="L28" s="14" t="str">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="17">
+      <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="L29" s="14" t="str">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" s="14" t="s">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4686,482 +4503,480 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="39"/>
-    <col min="2" max="2" width="17.125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="39" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="39" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="39" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="39" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" style="39" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="39"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
-        <v>97</v>
+      <c r="A1" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>82</v>
+      <c r="E2" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="5">
         <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="39" t="str">
+      <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table schedule_color (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="42">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="L10" s="39" t="str">
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>color  ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="42">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="L11" s="39" t="str">
+      <c r="B11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v xml:space="preserve">color_code  </v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="42">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="L12" s="39" t="str">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="42">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="L13" s="39" t="str">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="42">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="L14" s="39" t="str">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="42">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="L15" s="39" t="str">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="42">
+      <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="L16" s="39" t="str">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="42">
+      <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="L17" s="39" t="str">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="42">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="L18" s="39" t="str">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="42">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="L19" s="39" t="str">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="42">
+      <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="L20" s="39" t="str">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="42">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="L21" s="39" t="str">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="42">
+      <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="L22" s="39" t="str">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="42">
+      <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="L23" s="39" t="str">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="42">
+      <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="L24" s="39" t="str">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="42">
+      <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="L25" s="39" t="str">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="42">
+      <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="L26" s="39" t="str">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="42">
+      <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="L27" s="39" t="str">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="42">
+      <c r="A28" s="3">
         <v>19</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="L28" s="39" t="str">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="42">
+      <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="L29" s="39" t="str">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" s="39" t="s">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5176,491 +4991,489 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="26"/>
-    <col min="2" max="2" width="17.125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="26" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="26" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="26" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="26" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" style="26" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="26"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
-        <v>81</v>
+      <c r="A1" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>82</v>
+      <c r="E2" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="5">
         <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="26" t="str">
+      <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table login (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="29">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="L10" s="26" t="str">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>user  ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="29">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>login_time  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="L11" s="26" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_name  ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="29">
-        <v>3</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="L12" s="26" t="str">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">login_days  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="29">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="L13" s="26" t="str">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="29">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="L14" s="26" t="str">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="29">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="L15" s="26" t="str">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="29">
+      <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="L16" s="26" t="str">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
+      <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="L17" s="26" t="str">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="29">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="L18" s="26" t="str">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="29">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="L19" s="26" t="str">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="29">
+      <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="L20" s="26" t="str">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="29">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="L21" s="26" t="str">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="29">
+      <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="L22" s="26" t="str">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="29">
+      <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="L23" s="26" t="str">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="29">
+      <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="L24" s="26" t="str">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="29">
+      <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="L25" s="26" t="str">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="29">
+      <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="L26" s="26" t="str">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="29">
+      <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="L27" s="26" t="str">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="29">
+      <c r="A28" s="3">
         <v>19</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="L28" s="26" t="str">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="29">
+      <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="L29" s="26" t="str">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" s="26" t="s">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5680,482 +5493,480 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="50"/>
-    <col min="2" max="2" width="17.125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="50" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="50" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="50" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="50" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="50" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" style="50" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="50"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>101</v>
+      <c r="E2" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="5">
         <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="50" t="str">
+      <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table closet (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="53">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="L10" s="50" t="str">
+      <c r="C10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>user_id  ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="53">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="L11" s="50" t="str">
+      <c r="B11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v xml:space="preserve">closet_id  </v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="53">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="L12" s="50" t="str">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="53">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="L13" s="50" t="str">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="53">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="L14" s="50" t="str">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="53">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="L15" s="50" t="str">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="53">
+      <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="L16" s="50" t="str">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="53">
+      <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="L17" s="50" t="str">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="53">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="L18" s="50" t="str">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="53">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="L19" s="50" t="str">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="53">
+      <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="L20" s="50" t="str">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="53">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="L21" s="50" t="str">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="53">
+      <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="L22" s="50" t="str">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="53">
+      <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="L23" s="50" t="str">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="53">
+      <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="L24" s="50" t="str">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="53">
+      <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="L25" s="50" t="str">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="53">
+      <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="L26" s="50" t="str">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="53">
+      <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="L27" s="50" t="str">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="53">
+      <c r="A28" s="3">
         <v>19</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="L28" s="50" t="str">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="53">
+      <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="L29" s="50" t="str">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" s="50" t="s">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
